--- a/4semestr/StatystykaMatematycznaEkonomiczna/Projekty/SzeregiCzasowe/data.xlsx
+++ b/4semestr/StatystykaMatematycznaEkonomiczna/Projekty/SzeregiCzasowe/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oskar\Desktop\sprawozdania_4semestr\TimeSeries(Szeregi Czasowe)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\university\4semestr\StatystykaMatematycznaEkonomiczna\Projekty\SzeregiCzasowe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D84D3D5-8B5F-44A7-88EA-F6CD3E42C18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C7AB8A-2AA1-458B-AD18-327B0DFB310F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12465" yWindow="615" windowWidth="23010" windowHeight="15135" xr2:uid="{C0616A69-5135-4697-8AE3-F0B45D5342F8}"/>
+    <workbookView xWindow="3630" yWindow="285" windowWidth="23010" windowHeight="15135" xr2:uid="{C0616A69-5135-4697-8AE3-F0B45D5342F8}"/>
   </bookViews>
   <sheets>
     <sheet name="miesieczna-sprzedaz-komputerow" sheetId="2" r:id="rId1"/>
@@ -96,17 +96,17 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -134,11 +134,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D75FCE00-C262-487E-BFBA-1962E24C89A0}" name="Tabela_monthly_beer_production_in_austr" displayName="Tabela_monthly_beer_production_in_austr" ref="A1:B51" tableType="queryTable" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D75FCE00-C262-487E-BFBA-1962E24C89A0}" name="Tabela_monthly_beer_production_in_austr" displayName="Tabela_monthly_beer_production_in_austr" ref="A1:B51" tableType="queryTable" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:B51" xr:uid="{D75FCE00-C262-487E-BFBA-1962E24C89A0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9EB64DC5-F805-4E29-8714-4A1C1F5A67CC}" uniqueName="1" name="Data" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{88B1668B-858B-4EC5-9762-7C12866DCEA3}" uniqueName="2" name="Sprzedaż komputrów" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{9EB64DC5-F805-4E29-8714-4A1C1F5A67CC}" uniqueName="1" name="Data" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{88B1668B-858B-4EC5-9762-7C12866DCEA3}" uniqueName="2" name="Sprzedaż komputrów" queryTableFieldId="2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -444,7 +444,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,7 +463,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>44562</v>
+        <v>43101</v>
       </c>
       <c r="B2" s="3">
         <v>149.18376058525038</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>44593</v>
+        <v>43132</v>
       </c>
       <c r="B3" s="3">
         <v>144.08806779775881</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>44621</v>
+        <v>43160</v>
       </c>
       <c r="B4" s="3">
         <v>179.99322051665843</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>44652</v>
+        <v>43191</v>
       </c>
       <c r="B5" s="3">
         <v>188.59773280096903</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>44682</v>
+        <v>43221</v>
       </c>
       <c r="B6" s="3">
         <v>110.52804919262415</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>44713</v>
+        <v>43252</v>
       </c>
       <c r="B7" s="3">
         <v>169.24888736661711</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>44743</v>
+        <v>43282</v>
       </c>
       <c r="B8" s="3">
         <v>127.45990145948352</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>44774</v>
+        <v>43313</v>
       </c>
       <c r="B9" s="3">
         <v>140.96633308575659</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>44805</v>
+        <v>43344</v>
       </c>
       <c r="B10" s="3">
         <v>154.06831321244729</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>44835</v>
+        <v>43374</v>
       </c>
       <c r="B11" s="3">
         <v>160.02753379894216</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>44866</v>
+        <v>43405</v>
       </c>
       <c r="B12" s="3">
         <v>142.34780766802183</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>44896</v>
+        <v>43435</v>
       </c>
       <c r="B13" s="3">
         <v>109.99905764586042</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44927</v>
+        <v>43466</v>
       </c>
       <c r="B14" s="3">
         <v>135.41493582899042</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>44958</v>
+        <v>43497</v>
       </c>
       <c r="B15" s="3">
         <v>179.865921523785</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>44986</v>
+        <v>43525</v>
       </c>
       <c r="B16" s="3">
         <v>132.64460342366434</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>45017</v>
+        <v>43556</v>
       </c>
       <c r="B17" s="3">
         <v>145.50480103573463</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>45047</v>
+        <v>43586</v>
       </c>
       <c r="B18" s="3">
         <v>189.92576694707685</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>45078</v>
+        <v>43617</v>
       </c>
       <c r="B19" s="3">
         <v>192.35872822559361</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>45108</v>
+        <v>43647</v>
       </c>
       <c r="B20" s="3">
         <v>161.39042914910016</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>45139</v>
+        <v>43678</v>
       </c>
       <c r="B21" s="3">
         <v>141.98425083051092</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>45170</v>
+        <v>43709</v>
       </c>
       <c r="B22" s="3">
         <v>147.62858878108179</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45200</v>
+        <v>43739</v>
       </c>
       <c r="B23" s="3">
         <v>144.02496988956446</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45231</v>
+        <v>43770</v>
       </c>
       <c r="B24" s="3">
         <v>103.09178765563674</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45261</v>
+        <v>43800</v>
       </c>
       <c r="B25" s="3">
         <v>169.97394784426524</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45292</v>
+        <v>43831</v>
       </c>
       <c r="B26" s="3">
         <v>127.13193086633532</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45323</v>
+        <v>43862</v>
       </c>
       <c r="B27" s="3">
         <v>135.30291362105268</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45352</v>
+        <v>43891</v>
       </c>
       <c r="B28" s="3">
         <v>133.50714079652516</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45383</v>
+        <v>43922</v>
       </c>
       <c r="B29" s="3">
         <v>157.36734689969717</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45413</v>
+        <v>43952</v>
       </c>
       <c r="B30" s="3">
         <v>111.81089446660533</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45444</v>
+        <v>43983</v>
       </c>
       <c r="B31" s="3">
         <v>149.13389571698687</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>45474</v>
+        <v>44013</v>
       </c>
       <c r="B32" s="3">
         <v>180.21749577075889</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>45505</v>
+        <v>44044</v>
       </c>
       <c r="B33" s="3">
         <v>194.38487466915896</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>45536</v>
+        <v>44075</v>
       </c>
       <c r="B34" s="3">
         <v>109.21730316565022</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>45566</v>
+        <v>44105</v>
       </c>
       <c r="B35" s="3">
         <v>100.22970049332235</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>45597</v>
+        <v>44136</v>
       </c>
       <c r="B36" s="3">
         <v>143.70734428236329</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>45627</v>
+        <v>44166</v>
       </c>
       <c r="B37" s="3">
         <v>139.92410431002847</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>45658</v>
+        <v>44197</v>
       </c>
       <c r="B38" s="3">
         <v>155.7739030100517</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45689</v>
+        <v>44228</v>
       </c>
       <c r="B39" s="3">
         <v>160.19598396956889</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45717</v>
+        <v>44256</v>
       </c>
       <c r="B40" s="3">
         <v>190.29803354751891</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45748</v>
+        <v>44287</v>
       </c>
       <c r="B41" s="3">
         <v>179.0774289734905</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45778</v>
+        <v>44317</v>
       </c>
       <c r="B42" s="3">
         <v>126.36880523454208</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45809</v>
+        <v>44348</v>
       </c>
       <c r="B43" s="3">
         <v>106.37382143507233</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45839</v>
+        <v>44378</v>
       </c>
       <c r="B44" s="3">
         <v>163.82671020593091</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45870</v>
+        <v>44409</v>
       </c>
       <c r="B45" s="3">
         <v>172.28427327693811</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45901</v>
+        <v>44440</v>
       </c>
       <c r="B46" s="3">
         <v>175.49033843710049</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45931</v>
+        <v>44470</v>
       </c>
       <c r="B47" s="3">
         <v>152.79694232650695</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45962</v>
+        <v>44501</v>
       </c>
       <c r="B48" s="3">
         <v>128.04318159659266</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45992</v>
+        <v>44531</v>
       </c>
       <c r="B49" s="3">
         <v>170.17412678421408</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>46023</v>
+        <v>44562</v>
       </c>
       <c r="B50" s="3">
         <v>128.94378429800449</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>46054</v>
+        <v>44593</v>
       </c>
       <c r="B51" s="3">
         <v>124.45916159002779</v>
